--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -317,6 +317,30 @@
       <t>er'qi</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>帐务列表慢SQL优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partnerpc/PartnerApp</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>田志敏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+  </si>
+  <si>
+    <t>SLOW-198</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -1513,8 +1537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1671,27 +1695,55 @@
       <c r="W2" s="54"/>
     </row>
     <row r="3" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="78">
+        <v>2</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="80">
+        <v>42751</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="80">
+        <v>42751</v>
+      </c>
       <c r="K3" s="79"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="81"/>
+      <c r="L3" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>84</v>
+      </c>
       <c r="N3" s="47"/>
       <c r="O3" s="81"/>
       <c r="P3" s="80"/>
       <c r="Q3" s="47"/>
-      <c r="R3" s="77"/>
+      <c r="R3" s="77" t="s">
+        <v>85</v>
+      </c>
       <c r="S3" s="77"/>
       <c r="T3" s="82"/>
-      <c r="U3" s="55"/>
+      <c r="U3" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="V3" s="53"/>
       <c r="W3" s="84"/>
     </row>
@@ -5604,9 +5656,10 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="http://192.168.60.204/browse/DV-2093"/>
+    <hyperlink ref="R3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -341,6 +341,10 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>Parnterpc退房之后的帐务列表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1538,7 +1542,7 @@
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1744,7 +1748,9 @@
       <c r="U3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="V3" s="53"/>
+      <c r="V3" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="W3" s="84"/>
     </row>
     <row r="4" spans="1:23" s="31" customFormat="1" ht="16.5" customHeight="1">

--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
@@ -24,7 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
   <si>
     <t>No</t>
   </si>
@@ -345,6 +345,25 @@
   <si>
     <t>Parnterpc退房之后的帐务列表</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoda-tasktracker</t>
+  </si>
+  <si>
+    <t>王涛</t>
+  </si>
+  <si>
+    <t>无资源测试</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>LTS框架升级；集群增加任务执行节点</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重要</t>
   </si>
 </sst>
 </file>
@@ -1541,8 +1560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1698,7 +1717,7 @@
       </c>
       <c r="W2" s="54"/>
     </row>
-    <row r="3" spans="1:23" s="31" customFormat="1" ht="18" customHeight="1">
+    <row r="3" spans="1:23" s="31" customFormat="1" ht="39.75" customHeight="1">
       <c r="A3" s="78">
         <v>2</v>
       </c>
@@ -1745,7 +1764,7 @@
       </c>
       <c r="S3" s="77"/>
       <c r="T3" s="82"/>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="52" t="s">
         <v>86</v>
       </c>
       <c r="V3" s="53" t="s">
@@ -1753,32 +1772,64 @@
       </c>
       <c r="W3" s="84"/>
     </row>
-    <row r="4" spans="1:23" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+    <row r="4" spans="1:23" s="31" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="39">
+        <v>42751</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="39">
+        <v>42751</v>
+      </c>
       <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
+      <c r="L4" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>90</v>
+      </c>
       <c r="O4" s="47"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="47"/>
+      <c r="P4" s="39">
+        <v>42752</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>91</v>
+      </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="44"/>
-      <c r="U4" s="52"/>
+      <c r="U4" s="52" t="s">
+        <v>86</v>
+      </c>
       <c r="V4" s="53"/>
       <c r="W4" s="54"/>
     </row>
-    <row r="5" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="5" spans="1:23" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>

--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.6 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,8 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
   <si>
     <t>No</t>
   </si>
@@ -365,12 +366,36 @@
   <si>
     <t>不重要</t>
   </si>
+  <si>
+    <t>提现列表慢SQL优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯银鹏</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝明基</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1182,13 +1207,13 @@
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="甘特图 2" xfId="14"/>
-    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1557,14 +1582,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
@@ -1591,7 +1616,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1684,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="31" customFormat="1" ht="249" customHeight="1">
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -1717,7 +1742,7 @@
       </c>
       <c r="W2" s="54"/>
     </row>
-    <row r="3" spans="1:23" s="31" customFormat="1" ht="39.75" customHeight="1">
+    <row r="3" spans="1:23" s="31" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="78">
         <v>2</v>
       </c>
@@ -1772,7 +1797,7 @@
       </c>
       <c r="W3" s="84"/>
     </row>
-    <row r="4" spans="1:23" s="31" customFormat="1" ht="36.75" customHeight="1">
+    <row r="4" spans="1:23" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -1829,32 +1854,62 @@
       <c r="V4" s="53"/>
       <c r="W4" s="54"/>
     </row>
-    <row r="5" spans="1:23" s="31" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+    <row r="5" spans="1:23" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="39">
+        <v>42751</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="39">
+        <v>42751</v>
+      </c>
       <c r="K5" s="38"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
+      <c r="L5" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5" s="38" t="s">
+        <v>98</v>
+      </c>
       <c r="O5" s="47"/>
       <c r="P5" s="39"/>
       <c r="Q5" s="47"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="77" t="s">
+        <v>85</v>
+      </c>
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
-      <c r="U5" s="52"/>
+      <c r="U5" s="52" t="s">
+        <v>99</v>
+      </c>
       <c r="V5" s="55"/>
       <c r="W5" s="54"/>
     </row>
-    <row r="6" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="6" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1879,7 +1934,7 @@
       <c r="V6" s="55"/>
       <c r="W6" s="54"/>
     </row>
-    <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1904,7 +1959,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="54"/>
     </row>
-    <row r="8" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="8" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1929,7 +1984,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="54"/>
     </row>
-    <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1954,7 +2009,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="54"/>
     </row>
-    <row r="10" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="10" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1979,7 +2034,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="54"/>
     </row>
-    <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -2004,7 +2059,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="54"/>
     </row>
-    <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -2029,7 +2084,7 @@
       <c r="V12" s="55"/>
       <c r="W12" s="54"/>
     </row>
-    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -2054,7 +2109,7 @@
       <c r="V13" s="55"/>
       <c r="W13" s="54"/>
     </row>
-    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -2079,7 +2134,7 @@
       <c r="V14" s="55"/>
       <c r="W14" s="54"/>
     </row>
-    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2104,7 +2159,7 @@
       <c r="V15" s="55"/>
       <c r="W15" s="54"/>
     </row>
-    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2129,7 +2184,7 @@
       <c r="V16" s="55"/>
       <c r="W16" s="54"/>
     </row>
-    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5">
+    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2154,7 +2209,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="54"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5">
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2178,7 +2233,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="45"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5">
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2202,7 +2257,7 @@
       <c r="U19" s="44"/>
       <c r="V19" s="45"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5">
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2226,7 +2281,7 @@
       <c r="U20" s="44"/>
       <c r="V20" s="45"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5">
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2250,7 +2305,7 @@
       <c r="U21" s="44"/>
       <c r="V21" s="55"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5">
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2274,7 +2329,7 @@
       <c r="U22" s="44"/>
       <c r="V22" s="55"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5">
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2298,7 +2353,7 @@
       <c r="U23" s="44"/>
       <c r="V23" s="55"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5">
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2322,7 +2377,7 @@
       <c r="U24" s="58"/>
       <c r="V24" s="59"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5">
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2346,7 +2401,7 @@
       <c r="U25" s="60"/>
       <c r="V25" s="59"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5">
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2370,7 +2425,7 @@
       <c r="U26" s="61"/>
       <c r="V26" s="59"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5">
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2394,7 +2449,7 @@
       <c r="U27" s="60"/>
       <c r="V27" s="59"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5">
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2418,7 +2473,7 @@
       <c r="U28" s="60"/>
       <c r="V28" s="59"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5">
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2442,7 +2497,7 @@
       <c r="U29" s="56"/>
       <c r="V29" s="47"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5">
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2466,7 +2521,7 @@
       <c r="U30" s="44"/>
       <c r="V30" s="55"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5">
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2490,7 +2545,7 @@
       <c r="U31" s="44"/>
       <c r="V31" s="55"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5">
+    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2514,7 +2569,7 @@
       <c r="U32" s="44"/>
       <c r="V32" s="55"/>
     </row>
-    <row r="33" spans="1:22" ht="16.5">
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2538,7 +2593,7 @@
       <c r="U33" s="60"/>
       <c r="V33" s="59"/>
     </row>
-    <row r="34" spans="1:22" ht="16.5">
+    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2562,7 +2617,7 @@
       <c r="U34" s="44"/>
       <c r="V34" s="53"/>
     </row>
-    <row r="35" spans="1:22" ht="16.5">
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2586,7 +2641,7 @@
       <c r="U35" s="44"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:22" ht="16.5">
+    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2610,7 +2665,7 @@
       <c r="U36" s="44"/>
       <c r="V36" s="55"/>
     </row>
-    <row r="37" spans="1:22" ht="16.5">
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2634,7 +2689,7 @@
       <c r="U37" s="44"/>
       <c r="V37" s="55"/>
     </row>
-    <row r="38" spans="1:22" ht="16.5">
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2658,7 +2713,7 @@
       <c r="U38" s="44"/>
       <c r="V38" s="55"/>
     </row>
-    <row r="39" spans="1:22" ht="16.5">
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2682,7 +2737,7 @@
       <c r="U39" s="44"/>
       <c r="V39" s="55"/>
     </row>
-    <row r="40" spans="1:22" ht="16.5">
+    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2706,7 +2761,7 @@
       <c r="U40" s="44"/>
       <c r="V40" s="55"/>
     </row>
-    <row r="41" spans="1:22" ht="16.5">
+    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2730,7 +2785,7 @@
       <c r="U41" s="44"/>
       <c r="V41" s="55"/>
     </row>
-    <row r="42" spans="1:22" ht="16.5">
+    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2754,7 +2809,7 @@
       <c r="U42" s="44"/>
       <c r="V42" s="55"/>
     </row>
-    <row r="43" spans="1:22" ht="16.5">
+    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2778,7 +2833,7 @@
       <c r="U43" s="44"/>
       <c r="V43" s="55"/>
     </row>
-    <row r="44" spans="1:22" ht="16.5">
+    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2802,7 +2857,7 @@
       <c r="U44" s="44"/>
       <c r="V44" s="55"/>
     </row>
-    <row r="45" spans="1:22" ht="16.5">
+    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2826,7 +2881,7 @@
       <c r="U45" s="56"/>
       <c r="V45" s="55"/>
     </row>
-    <row r="46" spans="1:22" ht="16.5">
+    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2850,7 +2905,7 @@
       <c r="U46" s="56"/>
       <c r="V46" s="55"/>
     </row>
-    <row r="47" spans="1:22" ht="16.5">
+    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2874,7 +2929,7 @@
       <c r="U47" s="44"/>
       <c r="V47" s="45"/>
     </row>
-    <row r="48" spans="1:22" ht="16.5">
+    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2898,7 +2953,7 @@
       <c r="U48" s="44"/>
       <c r="V48" s="45"/>
     </row>
-    <row r="49" spans="1:22" ht="16.5">
+    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2922,7 +2977,7 @@
       <c r="U49" s="44"/>
       <c r="V49" s="45"/>
     </row>
-    <row r="50" spans="1:22" ht="16.5">
+    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2946,7 +3001,7 @@
       <c r="U50" s="44"/>
       <c r="V50" s="45"/>
     </row>
-    <row r="51" spans="1:22" ht="16.5">
+    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2970,7 +3025,7 @@
       <c r="U51" s="44"/>
       <c r="V51" s="45"/>
     </row>
-    <row r="52" spans="1:22" ht="16.5">
+    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2994,7 +3049,7 @@
       <c r="U52" s="44"/>
       <c r="V52" s="45"/>
     </row>
-    <row r="53" spans="1:22" ht="16.5">
+    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -3018,7 +3073,7 @@
       <c r="U53" s="44"/>
       <c r="V53" s="45"/>
     </row>
-    <row r="54" spans="1:22" ht="16.5">
+    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3042,7 +3097,7 @@
       <c r="U54" s="44"/>
       <c r="V54" s="45"/>
     </row>
-    <row r="55" spans="1:22" ht="16.5">
+    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3066,7 +3121,7 @@
       <c r="U55" s="44"/>
       <c r="V55" s="45"/>
     </row>
-    <row r="56" spans="1:22" ht="16.5">
+    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3090,7 +3145,7 @@
       <c r="U56" s="44"/>
       <c r="V56" s="45"/>
     </row>
-    <row r="57" spans="1:22" ht="16.5">
+    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3114,7 +3169,7 @@
       <c r="U57" s="44"/>
       <c r="V57" s="45"/>
     </row>
-    <row r="58" spans="1:22" ht="16.5">
+    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3138,7 +3193,7 @@
       <c r="U58" s="44"/>
       <c r="V58" s="45"/>
     </row>
-    <row r="59" spans="1:22" ht="16.5">
+    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3162,7 +3217,7 @@
       <c r="U59" s="44"/>
       <c r="V59" s="45"/>
     </row>
-    <row r="60" spans="1:22" ht="16.5">
+    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3186,7 +3241,7 @@
       <c r="U60" s="44"/>
       <c r="V60" s="45"/>
     </row>
-    <row r="61" spans="1:22" ht="16.5">
+    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3210,7 +3265,7 @@
       <c r="U61" s="44"/>
       <c r="V61" s="45"/>
     </row>
-    <row r="62" spans="1:22" ht="16.5">
+    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3234,7 +3289,7 @@
       <c r="U62" s="44"/>
       <c r="V62" s="45"/>
     </row>
-    <row r="63" spans="1:22" ht="16.5">
+    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3258,7 +3313,7 @@
       <c r="U63" s="44"/>
       <c r="V63" s="45"/>
     </row>
-    <row r="64" spans="1:22" ht="16.5">
+    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3282,7 +3337,7 @@
       <c r="U64" s="44"/>
       <c r="V64" s="45"/>
     </row>
-    <row r="65" spans="1:22" ht="16.5">
+    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3306,7 +3361,7 @@
       <c r="U65" s="44"/>
       <c r="V65" s="45"/>
     </row>
-    <row r="66" spans="1:22" ht="16.5">
+    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3330,7 +3385,7 @@
       <c r="U66" s="44"/>
       <c r="V66" s="45"/>
     </row>
-    <row r="67" spans="1:22" ht="16.5">
+    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3354,7 +3409,7 @@
       <c r="U67" s="44"/>
       <c r="V67" s="45"/>
     </row>
-    <row r="68" spans="1:22" ht="16.5">
+    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3378,7 +3433,7 @@
       <c r="U68" s="44"/>
       <c r="V68" s="45"/>
     </row>
-    <row r="69" spans="1:22" ht="16.5">
+    <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3402,7 +3457,7 @@
       <c r="U69" s="44"/>
       <c r="V69" s="45"/>
     </row>
-    <row r="70" spans="1:22" ht="16.5">
+    <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3426,7 +3481,7 @@
       <c r="U70" s="44"/>
       <c r="V70" s="45"/>
     </row>
-    <row r="71" spans="1:22" ht="16.5">
+    <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3450,7 +3505,7 @@
       <c r="U71" s="44"/>
       <c r="V71" s="45"/>
     </row>
-    <row r="72" spans="1:22" ht="16.5">
+    <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3474,7 +3529,7 @@
       <c r="U72" s="44"/>
       <c r="V72" s="45"/>
     </row>
-    <row r="73" spans="1:22" ht="16.5">
+    <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3498,7 +3553,7 @@
       <c r="U73" s="44"/>
       <c r="V73" s="45"/>
     </row>
-    <row r="74" spans="1:22" ht="16.5">
+    <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3522,7 +3577,7 @@
       <c r="U74" s="44"/>
       <c r="V74" s="45"/>
     </row>
-    <row r="75" spans="1:22" ht="16.5">
+    <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3546,7 +3601,7 @@
       <c r="U75" s="44"/>
       <c r="V75" s="45"/>
     </row>
-    <row r="76" spans="1:22">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3570,7 +3625,7 @@
       <c r="U76" s="44"/>
       <c r="V76" s="45"/>
     </row>
-    <row r="77" spans="1:22">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3594,7 +3649,7 @@
       <c r="U77" s="44"/>
       <c r="V77" s="45"/>
     </row>
-    <row r="78" spans="1:22">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3618,7 +3673,7 @@
       <c r="U78" s="44"/>
       <c r="V78" s="45"/>
     </row>
-    <row r="79" spans="1:22">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3642,7 +3697,7 @@
       <c r="U79" s="44"/>
       <c r="V79" s="45"/>
     </row>
-    <row r="80" spans="1:22">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3666,7 +3721,7 @@
       <c r="U80" s="44"/>
       <c r="V80" s="45"/>
     </row>
-    <row r="81" spans="1:22">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3690,7 +3745,7 @@
       <c r="U81" s="44"/>
       <c r="V81" s="45"/>
     </row>
-    <row r="82" spans="1:22">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3714,7 +3769,7 @@
       <c r="U82" s="44"/>
       <c r="V82" s="45"/>
     </row>
-    <row r="83" spans="1:22">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3738,7 +3793,7 @@
       <c r="U83" s="44"/>
       <c r="V83" s="45"/>
     </row>
-    <row r="84" spans="1:22">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3762,7 +3817,7 @@
       <c r="U84" s="44"/>
       <c r="V84" s="45"/>
     </row>
-    <row r="85" spans="1:22">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3786,7 +3841,7 @@
       <c r="U85" s="44"/>
       <c r="V85" s="45"/>
     </row>
-    <row r="86" spans="1:22">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3810,7 +3865,7 @@
       <c r="U86" s="44"/>
       <c r="V86" s="45"/>
     </row>
-    <row r="87" spans="1:22">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3834,7 +3889,7 @@
       <c r="U87" s="44"/>
       <c r="V87" s="45"/>
     </row>
-    <row r="88" spans="1:22">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3858,7 +3913,7 @@
       <c r="U88" s="44"/>
       <c r="V88" s="45"/>
     </row>
-    <row r="89" spans="1:22">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3882,7 +3937,7 @@
       <c r="U89" s="44"/>
       <c r="V89" s="45"/>
     </row>
-    <row r="90" spans="1:22">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3906,7 +3961,7 @@
       <c r="U90" s="44"/>
       <c r="V90" s="45"/>
     </row>
-    <row r="91" spans="1:22">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3930,7 +3985,7 @@
       <c r="U91" s="44"/>
       <c r="V91" s="45"/>
     </row>
-    <row r="92" spans="1:22">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3954,7 +4009,7 @@
       <c r="U92" s="44"/>
       <c r="V92" s="45"/>
     </row>
-    <row r="93" spans="1:22">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3978,7 +4033,7 @@
       <c r="U93" s="44"/>
       <c r="V93" s="45"/>
     </row>
-    <row r="94" spans="1:22">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4002,7 +4057,7 @@
       <c r="U94" s="44"/>
       <c r="V94" s="45"/>
     </row>
-    <row r="95" spans="1:22">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4026,7 +4081,7 @@
       <c r="U95" s="44"/>
       <c r="V95" s="45"/>
     </row>
-    <row r="96" spans="1:22">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4050,7 +4105,7 @@
       <c r="U96" s="44"/>
       <c r="V96" s="45"/>
     </row>
-    <row r="97" spans="1:22">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4074,7 +4129,7 @@
       <c r="U97" s="44"/>
       <c r="V97" s="45"/>
     </row>
-    <row r="98" spans="1:22">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4098,7 +4153,7 @@
       <c r="U98" s="44"/>
       <c r="V98" s="45"/>
     </row>
-    <row r="99" spans="1:22">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4122,7 +4177,7 @@
       <c r="U99" s="44"/>
       <c r="V99" s="45"/>
     </row>
-    <row r="100" spans="1:22">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4146,7 +4201,7 @@
       <c r="U100" s="44"/>
       <c r="V100" s="45"/>
     </row>
-    <row r="101" spans="1:22">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4170,7 +4225,7 @@
       <c r="U101" s="44"/>
       <c r="V101" s="45"/>
     </row>
-    <row r="102" spans="1:22">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4194,7 +4249,7 @@
       <c r="U102" s="44"/>
       <c r="V102" s="45"/>
     </row>
-    <row r="103" spans="1:22">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4218,7 +4273,7 @@
       <c r="U103" s="44"/>
       <c r="V103" s="45"/>
     </row>
-    <row r="104" spans="1:22">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4242,7 +4297,7 @@
       <c r="U104" s="44"/>
       <c r="V104" s="45"/>
     </row>
-    <row r="105" spans="1:22">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4266,7 +4321,7 @@
       <c r="U105" s="44"/>
       <c r="V105" s="45"/>
     </row>
-    <row r="106" spans="1:22">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4290,7 +4345,7 @@
       <c r="U106" s="44"/>
       <c r="V106" s="45"/>
     </row>
-    <row r="107" spans="1:22">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4314,7 +4369,7 @@
       <c r="U107" s="44"/>
       <c r="V107" s="45"/>
     </row>
-    <row r="108" spans="1:22">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4338,7 +4393,7 @@
       <c r="U108" s="44"/>
       <c r="V108" s="45"/>
     </row>
-    <row r="109" spans="1:22">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4362,7 +4417,7 @@
       <c r="U109" s="44"/>
       <c r="V109" s="45"/>
     </row>
-    <row r="110" spans="1:22">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4386,7 +4441,7 @@
       <c r="U110" s="44"/>
       <c r="V110" s="45"/>
     </row>
-    <row r="111" spans="1:22">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4410,7 +4465,7 @@
       <c r="U111" s="44"/>
       <c r="V111" s="45"/>
     </row>
-    <row r="112" spans="1:22">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4434,7 +4489,7 @@
       <c r="U112" s="44"/>
       <c r="V112" s="45"/>
     </row>
-    <row r="113" spans="1:22">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4458,7 +4513,7 @@
       <c r="U113" s="44"/>
       <c r="V113" s="45"/>
     </row>
-    <row r="114" spans="1:22">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4482,7 +4537,7 @@
       <c r="U114" s="44"/>
       <c r="V114" s="45"/>
     </row>
-    <row r="115" spans="1:22">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4506,7 +4561,7 @@
       <c r="U115" s="44"/>
       <c r="V115" s="45"/>
     </row>
-    <row r="116" spans="1:22">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4530,7 +4585,7 @@
       <c r="U116" s="44"/>
       <c r="V116" s="45"/>
     </row>
-    <row r="117" spans="1:22">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4554,7 +4609,7 @@
       <c r="U117" s="44"/>
       <c r="V117" s="45"/>
     </row>
-    <row r="118" spans="1:22">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4578,7 +4633,7 @@
       <c r="U118" s="44"/>
       <c r="V118" s="45"/>
     </row>
-    <row r="119" spans="1:22">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4602,7 +4657,7 @@
       <c r="U119" s="44"/>
       <c r="V119" s="45"/>
     </row>
-    <row r="120" spans="1:22">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4626,7 +4681,7 @@
       <c r="U120" s="44"/>
       <c r="V120" s="45"/>
     </row>
-    <row r="121" spans="1:22">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4650,7 +4705,7 @@
       <c r="U121" s="44"/>
       <c r="V121" s="45"/>
     </row>
-    <row r="122" spans="1:22">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4674,7 +4729,7 @@
       <c r="U122" s="44"/>
       <c r="V122" s="45"/>
     </row>
-    <row r="123" spans="1:22">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4698,7 +4753,7 @@
       <c r="U123" s="44"/>
       <c r="V123" s="45"/>
     </row>
-    <row r="124" spans="1:22">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4722,7 +4777,7 @@
       <c r="U124" s="44"/>
       <c r="V124" s="45"/>
     </row>
-    <row r="125" spans="1:22">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4746,7 +4801,7 @@
       <c r="U125" s="44"/>
       <c r="V125" s="45"/>
     </row>
-    <row r="126" spans="1:22">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4770,7 +4825,7 @@
       <c r="U126" s="44"/>
       <c r="V126" s="45"/>
     </row>
-    <row r="127" spans="1:22">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4794,7 +4849,7 @@
       <c r="U127" s="44"/>
       <c r="V127" s="45"/>
     </row>
-    <row r="128" spans="1:22">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4818,7 +4873,7 @@
       <c r="U128" s="44"/>
       <c r="V128" s="45"/>
     </row>
-    <row r="129" spans="1:22">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4842,7 +4897,7 @@
       <c r="U129" s="44"/>
       <c r="V129" s="45"/>
     </row>
-    <row r="130" spans="1:22">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4866,7 +4921,7 @@
       <c r="U130" s="44"/>
       <c r="V130" s="45"/>
     </row>
-    <row r="131" spans="1:22">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4890,7 +4945,7 @@
       <c r="U131" s="44"/>
       <c r="V131" s="45"/>
     </row>
-    <row r="132" spans="1:22">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4914,7 +4969,7 @@
       <c r="U132" s="44"/>
       <c r="V132" s="45"/>
     </row>
-    <row r="133" spans="1:22">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4938,7 +4993,7 @@
       <c r="U133" s="44"/>
       <c r="V133" s="45"/>
     </row>
-    <row r="134" spans="1:22">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4962,7 +5017,7 @@
       <c r="U134" s="44"/>
       <c r="V134" s="45"/>
     </row>
-    <row r="135" spans="1:22">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4986,7 +5041,7 @@
       <c r="U135" s="44"/>
       <c r="V135" s="45"/>
     </row>
-    <row r="136" spans="1:22">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5006,7 +5061,7 @@
       <c r="Q136" s="45"/>
       <c r="V136" s="45"/>
     </row>
-    <row r="137" spans="1:22">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5026,7 +5081,7 @@
       <c r="Q137" s="45"/>
       <c r="V137" s="45"/>
     </row>
-    <row r="138" spans="1:22">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5046,7 +5101,7 @@
       <c r="Q138" s="45"/>
       <c r="V138" s="45"/>
     </row>
-    <row r="139" spans="1:22">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5066,7 +5121,7 @@
       <c r="Q139" s="45"/>
       <c r="V139" s="45"/>
     </row>
-    <row r="140" spans="1:22">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5086,7 +5141,7 @@
       <c r="Q140" s="45"/>
       <c r="V140" s="45"/>
     </row>
-    <row r="141" spans="1:22">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5106,7 +5161,7 @@
       <c r="Q141" s="45"/>
       <c r="V141" s="45"/>
     </row>
-    <row r="142" spans="1:22">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5126,7 +5181,7 @@
       <c r="Q142" s="45"/>
       <c r="V142" s="45"/>
     </row>
-    <row r="143" spans="1:22">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5146,7 +5201,7 @@
       <c r="Q143" s="45"/>
       <c r="V143" s="45"/>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5166,7 +5221,7 @@
       <c r="Q144" s="45"/>
       <c r="V144" s="45"/>
     </row>
-    <row r="145" spans="1:22">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5186,7 +5241,7 @@
       <c r="Q145" s="45"/>
       <c r="V145" s="45"/>
     </row>
-    <row r="146" spans="1:22">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5206,7 +5261,7 @@
       <c r="Q146" s="45"/>
       <c r="V146" s="45"/>
     </row>
-    <row r="147" spans="1:22">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5226,7 +5281,7 @@
       <c r="Q147" s="45"/>
       <c r="V147" s="45"/>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5246,7 +5301,7 @@
       <c r="Q148" s="45"/>
       <c r="V148" s="45"/>
     </row>
-    <row r="149" spans="1:22">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5266,7 +5321,7 @@
       <c r="Q149" s="45"/>
       <c r="V149" s="45"/>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5286,7 +5341,7 @@
       <c r="Q150" s="45"/>
       <c r="V150" s="45"/>
     </row>
-    <row r="151" spans="1:22">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5306,7 +5361,7 @@
       <c r="Q151" s="45"/>
       <c r="V151" s="45"/>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5326,7 +5381,7 @@
       <c r="Q152" s="45"/>
       <c r="V152" s="45"/>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5346,7 +5401,7 @@
       <c r="Q153" s="45"/>
       <c r="V153" s="45"/>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5366,7 +5421,7 @@
       <c r="Q154" s="45"/>
       <c r="V154" s="45"/>
     </row>
-    <row r="155" spans="1:22">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5386,7 +5441,7 @@
       <c r="Q155" s="45"/>
       <c r="V155" s="45"/>
     </row>
-    <row r="156" spans="1:22">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5406,7 +5461,7 @@
       <c r="Q156" s="45"/>
       <c r="V156" s="45"/>
     </row>
-    <row r="157" spans="1:22">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5426,7 +5481,7 @@
       <c r="Q157" s="45"/>
       <c r="V157" s="45"/>
     </row>
-    <row r="158" spans="1:22">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5446,7 +5501,7 @@
       <c r="Q158" s="45"/>
       <c r="V158" s="45"/>
     </row>
-    <row r="159" spans="1:22">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5466,7 +5521,7 @@
       <c r="Q159" s="45"/>
       <c r="V159" s="45"/>
     </row>
-    <row r="160" spans="1:22">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5486,7 +5541,7 @@
       <c r="Q160" s="45"/>
       <c r="V160" s="45"/>
     </row>
-    <row r="161" spans="1:22">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5506,7 +5561,7 @@
       <c r="Q161" s="45"/>
       <c r="V161" s="45"/>
     </row>
-    <row r="162" spans="1:22">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5526,7 +5581,7 @@
       <c r="Q162" s="45"/>
       <c r="V162" s="45"/>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5546,7 +5601,7 @@
       <c r="Q163" s="45"/>
       <c r="V163" s="45"/>
     </row>
-    <row r="164" spans="1:22">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5566,7 +5621,7 @@
       <c r="Q164" s="45"/>
       <c r="V164" s="45"/>
     </row>
-    <row r="165" spans="1:22">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5586,7 +5641,7 @@
       <c r="Q165" s="45"/>
       <c r="V165" s="45"/>
     </row>
-    <row r="166" spans="1:22">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5606,7 +5661,7 @@
       <c r="Q166" s="45"/>
       <c r="V166" s="45"/>
     </row>
-    <row r="167" spans="1:22">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5626,7 +5681,7 @@
       <c r="Q167" s="45"/>
       <c r="V167" s="45"/>
     </row>
-    <row r="168" spans="1:22">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5646,7 +5701,7 @@
       <c r="Q168" s="45"/>
       <c r="V168" s="45"/>
     </row>
-    <row r="169" spans="1:22">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5666,7 +5721,7 @@
       <c r="Q169" s="45"/>
       <c r="V169" s="45"/>
     </row>
-    <row r="170" spans="1:22">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -5692,7 +5747,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576 G1:G1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5714,21 +5769,22 @@
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" display="http://192.168.60.204/browse/DV-2093"/>
     <hyperlink ref="R3" r:id="rId2"/>
+    <hyperlink ref="R5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5748,7 +5804,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>52</v>
       </c>
@@ -5804,7 +5860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5824,7 +5880,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5844,7 +5900,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5871,14 +5927,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -5890,7 +5946,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="86" t="s">
         <v>69</v>
       </c>
@@ -5905,7 +5961,7 @@
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -5940,7 +5996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="88"/>
       <c r="B3" s="88"/>
       <c r="C3" s="20"/>
@@ -5953,7 +6009,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="89"/>
       <c r="B4" s="90"/>
       <c r="C4" s="20"/>
@@ -5966,7 +6022,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="88"/>
       <c r="B5" s="88"/>
       <c r="C5" s="20"/>
@@ -5979,7 +6035,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="90"/>
       <c r="B6" s="90"/>
       <c r="C6" s="20"/>
@@ -5992,7 +6048,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="90"/>
       <c r="B7" s="90"/>
       <c r="C7" s="20"/>
@@ -6005,7 +6061,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="90"/>
       <c r="B8" s="90"/>
       <c r="C8" s="20"/>
@@ -6018,7 +6074,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="90"/>
       <c r="B9" s="90"/>
       <c r="C9" s="20"/>
@@ -6031,7 +6087,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="89"/>
       <c r="B10" s="89"/>
       <c r="C10" s="20"/>
@@ -6044,7 +6100,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6071,14 +6127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6093,7 +6149,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -6110,7 +6166,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -6125,7 +6181,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6166,7 +6222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6181,7 +6237,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6196,7 +6252,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6211,7 +6267,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6226,7 +6282,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6241,7 +6297,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6256,7 +6312,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6271,7 +6327,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6286,7 +6342,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6301,7 +6357,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6316,7 +6372,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6331,7 +6387,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6346,7 +6402,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6385,14 +6441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6407,7 +6463,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -6424,7 +6480,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -6439,7 +6495,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6480,7 +6536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6495,7 +6551,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6510,7 +6566,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6525,7 +6581,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6540,7 +6596,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6555,7 +6611,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6570,7 +6626,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6585,7 +6641,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6600,7 +6656,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6615,7 +6671,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6630,7 +6686,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6645,7 +6701,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6660,7 +6716,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6699,14 +6755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6721,7 +6777,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -6738,7 +6794,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -6753,7 +6809,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6794,7 +6850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6809,7 +6865,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6824,7 +6880,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6839,7 +6895,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6854,7 +6910,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6869,7 +6925,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6884,7 +6940,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6899,7 +6955,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6914,7 +6970,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6929,7 +6985,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6944,7 +7000,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6959,7 +7015,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6974,7 +7030,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7013,14 +7069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7037,7 +7093,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -7054,7 +7110,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -7069,7 +7125,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -7110,7 +7166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7125,7 +7181,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7140,7 +7196,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7155,7 +7211,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7170,7 +7226,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7185,7 +7241,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7200,7 +7256,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7215,7 +7271,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7230,7 +7286,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7245,7 +7301,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7260,7 +7316,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7275,7 +7331,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7290,7 +7346,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7329,14 +7385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7347,7 +7403,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -7373,7 +7429,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7383,7 +7439,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7393,7 +7449,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7403,7 +7459,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7413,7 +7469,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7423,7 +7479,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7433,7 +7489,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7443,7 +7499,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7453,7 +7509,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7463,7 +7519,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7473,7 +7529,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7483,7 +7539,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7493,7 +7549,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7503,7 +7559,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7513,7 +7569,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7523,7 +7579,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7533,7 +7589,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7543,7 +7599,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="10635"/>
@@ -24,8 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -390,12 +389,19 @@
     <t>否</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>李敖</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1207,13 +1213,13 @@
     <cellStyle name="超链接" xfId="12" builtinId="8"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="甘特图 2" xfId="14"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1582,14 +1588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
@@ -1616,7 +1622,7 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" s="30" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="31" customFormat="1" ht="249" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" s="31" customFormat="1" ht="249" customHeight="1">
       <c r="A2" s="78">
         <v>1</v>
       </c>
@@ -1742,7 +1748,7 @@
       </c>
       <c r="W2" s="54"/>
     </row>
-    <row r="3" spans="1:23" s="31" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" s="31" customFormat="1" ht="39.75" customHeight="1">
       <c r="A3" s="78">
         <v>2</v>
       </c>
@@ -1780,10 +1786,18 @@
       <c r="M3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="47"/>
+      <c r="N3" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="P3" s="80">
+        <v>42751</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>91</v>
+      </c>
       <c r="R3" s="77" t="s">
         <v>85</v>
       </c>
@@ -1797,7 +1811,7 @@
       </c>
       <c r="W3" s="84"/>
     </row>
-    <row r="4" spans="1:23" s="31" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" s="31" customFormat="1" ht="36.75" customHeight="1">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -1854,7 +1868,7 @@
       <c r="V4" s="53"/>
       <c r="W4" s="54"/>
     </row>
-    <row r="5" spans="1:23" s="31" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" s="31" customFormat="1" ht="26.25" customHeight="1">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -1909,7 +1923,7 @@
       <c r="V5" s="55"/>
       <c r="W5" s="54"/>
     </row>
-    <row r="6" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1934,7 +1948,7 @@
       <c r="V6" s="55"/>
       <c r="W6" s="54"/>
     </row>
-    <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1959,7 +1973,7 @@
       <c r="V7" s="55"/>
       <c r="W7" s="54"/>
     </row>
-    <row r="8" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1984,7 +1998,7 @@
       <c r="V8" s="55"/>
       <c r="W8" s="54"/>
     </row>
-    <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -2009,7 +2023,7 @@
       <c r="V9" s="55"/>
       <c r="W9" s="54"/>
     </row>
-    <row r="10" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -2034,7 +2048,7 @@
       <c r="V10" s="55"/>
       <c r="W10" s="54"/>
     </row>
-    <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -2059,7 +2073,7 @@
       <c r="V11" s="55"/>
       <c r="W11" s="54"/>
     </row>
-    <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -2084,7 +2098,7 @@
       <c r="V12" s="55"/>
       <c r="W12" s="54"/>
     </row>
-    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -2109,7 +2123,7 @@
       <c r="V13" s="55"/>
       <c r="W13" s="54"/>
     </row>
-    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -2134,7 +2148,7 @@
       <c r="V14" s="55"/>
       <c r="W14" s="54"/>
     </row>
-    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -2159,7 +2173,7 @@
       <c r="V15" s="55"/>
       <c r="W15" s="54"/>
     </row>
-    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -2184,7 +2198,7 @@
       <c r="V16" s="55"/>
       <c r="W16" s="54"/>
     </row>
-    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" s="31" customFormat="1" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2209,7 +2223,7 @@
       <c r="V17" s="57"/>
       <c r="W17" s="54"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2233,7 +2247,7 @@
       <c r="U18" s="44"/>
       <c r="V18" s="45"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -2257,7 +2271,7 @@
       <c r="U19" s="44"/>
       <c r="V19" s="45"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -2281,7 +2295,7 @@
       <c r="U20" s="44"/>
       <c r="V20" s="45"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -2305,7 +2319,7 @@
       <c r="U21" s="44"/>
       <c r="V21" s="55"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -2329,7 +2343,7 @@
       <c r="U22" s="44"/>
       <c r="V22" s="55"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2353,7 +2367,7 @@
       <c r="U23" s="44"/>
       <c r="V23" s="55"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2377,7 +2391,7 @@
       <c r="U24" s="58"/>
       <c r="V24" s="59"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2401,7 +2415,7 @@
       <c r="U25" s="60"/>
       <c r="V25" s="59"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2425,7 +2439,7 @@
       <c r="U26" s="61"/>
       <c r="V26" s="59"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2449,7 +2463,7 @@
       <c r="U27" s="60"/>
       <c r="V27" s="59"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2473,7 +2487,7 @@
       <c r="U28" s="60"/>
       <c r="V28" s="59"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2497,7 +2511,7 @@
       <c r="U29" s="56"/>
       <c r="V29" s="47"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2521,7 +2535,7 @@
       <c r="U30" s="44"/>
       <c r="V30" s="55"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2545,7 +2559,7 @@
       <c r="U31" s="44"/>
       <c r="V31" s="55"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2569,7 +2583,7 @@
       <c r="U32" s="44"/>
       <c r="V32" s="55"/>
     </row>
-    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" ht="16.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2593,7 +2607,7 @@
       <c r="U33" s="60"/>
       <c r="V33" s="59"/>
     </row>
-    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2617,7 +2631,7 @@
       <c r="U34" s="44"/>
       <c r="V34" s="53"/>
     </row>
-    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:22" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2641,7 +2655,7 @@
       <c r="U35" s="44"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:22" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2665,7 +2679,7 @@
       <c r="U36" s="44"/>
       <c r="V36" s="55"/>
     </row>
-    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:22" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2689,7 +2703,7 @@
       <c r="U37" s="44"/>
       <c r="V37" s="55"/>
     </row>
-    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:22" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2713,7 +2727,7 @@
       <c r="U38" s="44"/>
       <c r="V38" s="55"/>
     </row>
-    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:22" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2737,7 +2751,7 @@
       <c r="U39" s="44"/>
       <c r="V39" s="55"/>
     </row>
-    <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:22" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2761,7 +2775,7 @@
       <c r="U40" s="44"/>
       <c r="V40" s="55"/>
     </row>
-    <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:22" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2785,7 +2799,7 @@
       <c r="U41" s="44"/>
       <c r="V41" s="55"/>
     </row>
-    <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:22" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2809,7 +2823,7 @@
       <c r="U42" s="44"/>
       <c r="V42" s="55"/>
     </row>
-    <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:22" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2833,7 +2847,7 @@
       <c r="U43" s="44"/>
       <c r="V43" s="55"/>
     </row>
-    <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:22" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2857,7 +2871,7 @@
       <c r="U44" s="44"/>
       <c r="V44" s="55"/>
     </row>
-    <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:22" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2881,7 +2895,7 @@
       <c r="U45" s="56"/>
       <c r="V45" s="55"/>
     </row>
-    <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:22" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2905,7 +2919,7 @@
       <c r="U46" s="56"/>
       <c r="V46" s="55"/>
     </row>
-    <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:22" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2929,7 +2943,7 @@
       <c r="U47" s="44"/>
       <c r="V47" s="45"/>
     </row>
-    <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:22" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2953,7 +2967,7 @@
       <c r="U48" s="44"/>
       <c r="V48" s="45"/>
     </row>
-    <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2977,7 +2991,7 @@
       <c r="U49" s="44"/>
       <c r="V49" s="45"/>
     </row>
-    <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -3001,7 +3015,7 @@
       <c r="U50" s="44"/>
       <c r="V50" s="45"/>
     </row>
-    <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -3025,7 +3039,7 @@
       <c r="U51" s="44"/>
       <c r="V51" s="45"/>
     </row>
-    <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -3049,7 +3063,7 @@
       <c r="U52" s="44"/>
       <c r="V52" s="45"/>
     </row>
-    <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:22" ht="16.5">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -3073,7 +3087,7 @@
       <c r="U53" s="44"/>
       <c r="V53" s="45"/>
     </row>
-    <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:22" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -3097,7 +3111,7 @@
       <c r="U54" s="44"/>
       <c r="V54" s="45"/>
     </row>
-    <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:22" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3121,7 +3135,7 @@
       <c r="U55" s="44"/>
       <c r="V55" s="45"/>
     </row>
-    <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:22" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3145,7 +3159,7 @@
       <c r="U56" s="44"/>
       <c r="V56" s="45"/>
     </row>
-    <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:22" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -3169,7 +3183,7 @@
       <c r="U57" s="44"/>
       <c r="V57" s="45"/>
     </row>
-    <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:22" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -3193,7 +3207,7 @@
       <c r="U58" s="44"/>
       <c r="V58" s="45"/>
     </row>
-    <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:22" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -3217,7 +3231,7 @@
       <c r="U59" s="44"/>
       <c r="V59" s="45"/>
     </row>
-    <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:22" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -3241,7 +3255,7 @@
       <c r="U60" s="44"/>
       <c r="V60" s="45"/>
     </row>
-    <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:22" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -3265,7 +3279,7 @@
       <c r="U61" s="44"/>
       <c r="V61" s="45"/>
     </row>
-    <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:22" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -3289,7 +3303,7 @@
       <c r="U62" s="44"/>
       <c r="V62" s="45"/>
     </row>
-    <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:22" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -3313,7 +3327,7 @@
       <c r="U63" s="44"/>
       <c r="V63" s="45"/>
     </row>
-    <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:22" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -3337,7 +3351,7 @@
       <c r="U64" s="44"/>
       <c r="V64" s="45"/>
     </row>
-    <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:22" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -3361,7 +3375,7 @@
       <c r="U65" s="44"/>
       <c r="V65" s="45"/>
     </row>
-    <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:22" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3385,7 +3399,7 @@
       <c r="U66" s="44"/>
       <c r="V66" s="45"/>
     </row>
-    <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:22" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3409,7 +3423,7 @@
       <c r="U67" s="44"/>
       <c r="V67" s="45"/>
     </row>
-    <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:22" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3433,7 +3447,7 @@
       <c r="U68" s="44"/>
       <c r="V68" s="45"/>
     </row>
-    <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:22" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3457,7 +3471,7 @@
       <c r="U69" s="44"/>
       <c r="V69" s="45"/>
     </row>
-    <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:22" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3481,7 +3495,7 @@
       <c r="U70" s="44"/>
       <c r="V70" s="45"/>
     </row>
-    <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:22" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3505,7 +3519,7 @@
       <c r="U71" s="44"/>
       <c r="V71" s="45"/>
     </row>
-    <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:22" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3529,7 +3543,7 @@
       <c r="U72" s="44"/>
       <c r="V72" s="45"/>
     </row>
-    <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:22" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3553,7 +3567,7 @@
       <c r="U73" s="44"/>
       <c r="V73" s="45"/>
     </row>
-    <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:22" ht="16.5">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3577,7 +3591,7 @@
       <c r="U74" s="44"/>
       <c r="V74" s="45"/>
     </row>
-    <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:22" ht="16.5">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3601,7 +3615,7 @@
       <c r="U75" s="44"/>
       <c r="V75" s="45"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:22">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3625,7 +3639,7 @@
       <c r="U76" s="44"/>
       <c r="V76" s="45"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:22">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3649,7 +3663,7 @@
       <c r="U77" s="44"/>
       <c r="V77" s="45"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:22">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3673,7 +3687,7 @@
       <c r="U78" s="44"/>
       <c r="V78" s="45"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:22">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3697,7 +3711,7 @@
       <c r="U79" s="44"/>
       <c r="V79" s="45"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:22">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3721,7 +3735,7 @@
       <c r="U80" s="44"/>
       <c r="V80" s="45"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:22">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3745,7 +3759,7 @@
       <c r="U81" s="44"/>
       <c r="V81" s="45"/>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3769,7 +3783,7 @@
       <c r="U82" s="44"/>
       <c r="V82" s="45"/>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:22">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3793,7 +3807,7 @@
       <c r="U83" s="44"/>
       <c r="V83" s="45"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:22">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3817,7 +3831,7 @@
       <c r="U84" s="44"/>
       <c r="V84" s="45"/>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:22">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3841,7 +3855,7 @@
       <c r="U85" s="44"/>
       <c r="V85" s="45"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:22">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3865,7 +3879,7 @@
       <c r="U86" s="44"/>
       <c r="V86" s="45"/>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:22">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3889,7 +3903,7 @@
       <c r="U87" s="44"/>
       <c r="V87" s="45"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:22">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3913,7 +3927,7 @@
       <c r="U88" s="44"/>
       <c r="V88" s="45"/>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:22">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3937,7 +3951,7 @@
       <c r="U89" s="44"/>
       <c r="V89" s="45"/>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:22">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3961,7 +3975,7 @@
       <c r="U90" s="44"/>
       <c r="V90" s="45"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:22">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3985,7 +3999,7 @@
       <c r="U91" s="44"/>
       <c r="V91" s="45"/>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:22">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -4009,7 +4023,7 @@
       <c r="U92" s="44"/>
       <c r="V92" s="45"/>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:22">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -4033,7 +4047,7 @@
       <c r="U93" s="44"/>
       <c r="V93" s="45"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:22">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -4057,7 +4071,7 @@
       <c r="U94" s="44"/>
       <c r="V94" s="45"/>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:22">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -4081,7 +4095,7 @@
       <c r="U95" s="44"/>
       <c r="V95" s="45"/>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:22">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -4105,7 +4119,7 @@
       <c r="U96" s="44"/>
       <c r="V96" s="45"/>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:22">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -4129,7 +4143,7 @@
       <c r="U97" s="44"/>
       <c r="V97" s="45"/>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:22">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -4153,7 +4167,7 @@
       <c r="U98" s="44"/>
       <c r="V98" s="45"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:22">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -4177,7 +4191,7 @@
       <c r="U99" s="44"/>
       <c r="V99" s="45"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:22">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -4201,7 +4215,7 @@
       <c r="U100" s="44"/>
       <c r="V100" s="45"/>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:22">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -4225,7 +4239,7 @@
       <c r="U101" s="44"/>
       <c r="V101" s="45"/>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:22">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -4249,7 +4263,7 @@
       <c r="U102" s="44"/>
       <c r="V102" s="45"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:22">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -4273,7 +4287,7 @@
       <c r="U103" s="44"/>
       <c r="V103" s="45"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:22">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -4297,7 +4311,7 @@
       <c r="U104" s="44"/>
       <c r="V104" s="45"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:22">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -4321,7 +4335,7 @@
       <c r="U105" s="44"/>
       <c r="V105" s="45"/>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:22">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -4345,7 +4359,7 @@
       <c r="U106" s="44"/>
       <c r="V106" s="45"/>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:22">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -4369,7 +4383,7 @@
       <c r="U107" s="44"/>
       <c r="V107" s="45"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:22">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -4393,7 +4407,7 @@
       <c r="U108" s="44"/>
       <c r="V108" s="45"/>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:22">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4417,7 +4431,7 @@
       <c r="U109" s="44"/>
       <c r="V109" s="45"/>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:22">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4441,7 +4455,7 @@
       <c r="U110" s="44"/>
       <c r="V110" s="45"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:22">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4465,7 +4479,7 @@
       <c r="U111" s="44"/>
       <c r="V111" s="45"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:22">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4489,7 +4503,7 @@
       <c r="U112" s="44"/>
       <c r="V112" s="45"/>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:22">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4513,7 +4527,7 @@
       <c r="U113" s="44"/>
       <c r="V113" s="45"/>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:22">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4537,7 +4551,7 @@
       <c r="U114" s="44"/>
       <c r="V114" s="45"/>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:22">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4561,7 +4575,7 @@
       <c r="U115" s="44"/>
       <c r="V115" s="45"/>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:22">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4585,7 +4599,7 @@
       <c r="U116" s="44"/>
       <c r="V116" s="45"/>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:22">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4609,7 +4623,7 @@
       <c r="U117" s="44"/>
       <c r="V117" s="45"/>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:22">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4633,7 +4647,7 @@
       <c r="U118" s="44"/>
       <c r="V118" s="45"/>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:22">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4657,7 +4671,7 @@
       <c r="U119" s="44"/>
       <c r="V119" s="45"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:22">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4681,7 +4695,7 @@
       <c r="U120" s="44"/>
       <c r="V120" s="45"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:22">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4705,7 +4719,7 @@
       <c r="U121" s="44"/>
       <c r="V121" s="45"/>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:22">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4729,7 +4743,7 @@
       <c r="U122" s="44"/>
       <c r="V122" s="45"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:22">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4753,7 +4767,7 @@
       <c r="U123" s="44"/>
       <c r="V123" s="45"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:22">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4777,7 +4791,7 @@
       <c r="U124" s="44"/>
       <c r="V124" s="45"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:22">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4801,7 +4815,7 @@
       <c r="U125" s="44"/>
       <c r="V125" s="45"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:22">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4825,7 +4839,7 @@
       <c r="U126" s="44"/>
       <c r="V126" s="45"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:22">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4849,7 +4863,7 @@
       <c r="U127" s="44"/>
       <c r="V127" s="45"/>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:22">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4873,7 +4887,7 @@
       <c r="U128" s="44"/>
       <c r="V128" s="45"/>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:22">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4897,7 +4911,7 @@
       <c r="U129" s="44"/>
       <c r="V129" s="45"/>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:22">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4921,7 +4935,7 @@
       <c r="U130" s="44"/>
       <c r="V130" s="45"/>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:22">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4945,7 +4959,7 @@
       <c r="U131" s="44"/>
       <c r="V131" s="45"/>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:22">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4969,7 +4983,7 @@
       <c r="U132" s="44"/>
       <c r="V132" s="45"/>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:22">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4993,7 +5007,7 @@
       <c r="U133" s="44"/>
       <c r="V133" s="45"/>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:22">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -5017,7 +5031,7 @@
       <c r="U134" s="44"/>
       <c r="V134" s="45"/>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:22">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -5041,7 +5055,7 @@
       <c r="U135" s="44"/>
       <c r="V135" s="45"/>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:22">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -5061,7 +5075,7 @@
       <c r="Q136" s="45"/>
       <c r="V136" s="45"/>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:22">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -5081,7 +5095,7 @@
       <c r="Q137" s="45"/>
       <c r="V137" s="45"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:22">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -5101,7 +5115,7 @@
       <c r="Q138" s="45"/>
       <c r="V138" s="45"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:22">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -5121,7 +5135,7 @@
       <c r="Q139" s="45"/>
       <c r="V139" s="45"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:22">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -5141,7 +5155,7 @@
       <c r="Q140" s="45"/>
       <c r="V140" s="45"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:22">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -5161,7 +5175,7 @@
       <c r="Q141" s="45"/>
       <c r="V141" s="45"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:22">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -5181,7 +5195,7 @@
       <c r="Q142" s="45"/>
       <c r="V142" s="45"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:22">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -5201,7 +5215,7 @@
       <c r="Q143" s="45"/>
       <c r="V143" s="45"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:22">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -5221,7 +5235,7 @@
       <c r="Q144" s="45"/>
       <c r="V144" s="45"/>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:22">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -5241,7 +5255,7 @@
       <c r="Q145" s="45"/>
       <c r="V145" s="45"/>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:22">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -5261,7 +5275,7 @@
       <c r="Q146" s="45"/>
       <c r="V146" s="45"/>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:22">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -5281,7 +5295,7 @@
       <c r="Q147" s="45"/>
       <c r="V147" s="45"/>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:22">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -5301,7 +5315,7 @@
       <c r="Q148" s="45"/>
       <c r="V148" s="45"/>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:22">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -5321,7 +5335,7 @@
       <c r="Q149" s="45"/>
       <c r="V149" s="45"/>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:22">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -5341,7 +5355,7 @@
       <c r="Q150" s="45"/>
       <c r="V150" s="45"/>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:22">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -5361,7 +5375,7 @@
       <c r="Q151" s="45"/>
       <c r="V151" s="45"/>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:22">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -5381,7 +5395,7 @@
       <c r="Q152" s="45"/>
       <c r="V152" s="45"/>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:22">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -5401,7 +5415,7 @@
       <c r="Q153" s="45"/>
       <c r="V153" s="45"/>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:22">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -5421,7 +5435,7 @@
       <c r="Q154" s="45"/>
       <c r="V154" s="45"/>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:22">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -5441,7 +5455,7 @@
       <c r="Q155" s="45"/>
       <c r="V155" s="45"/>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:22">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5461,7 +5475,7 @@
       <c r="Q156" s="45"/>
       <c r="V156" s="45"/>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:22">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5481,7 +5495,7 @@
       <c r="Q157" s="45"/>
       <c r="V157" s="45"/>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:22">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5501,7 +5515,7 @@
       <c r="Q158" s="45"/>
       <c r="V158" s="45"/>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:22">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5521,7 +5535,7 @@
       <c r="Q159" s="45"/>
       <c r="V159" s="45"/>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:22">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5541,7 +5555,7 @@
       <c r="Q160" s="45"/>
       <c r="V160" s="45"/>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:22">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5561,7 +5575,7 @@
       <c r="Q161" s="45"/>
       <c r="V161" s="45"/>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:22">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5581,7 +5595,7 @@
       <c r="Q162" s="45"/>
       <c r="V162" s="45"/>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:22">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5601,7 +5615,7 @@
       <c r="Q163" s="45"/>
       <c r="V163" s="45"/>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:22">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5621,7 +5635,7 @@
       <c r="Q164" s="45"/>
       <c r="V164" s="45"/>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:22">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5641,7 +5655,7 @@
       <c r="Q165" s="45"/>
       <c r="V165" s="45"/>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:22">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5661,7 +5675,7 @@
       <c r="Q166" s="45"/>
       <c r="V166" s="45"/>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:22">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5681,7 +5695,7 @@
       <c r="Q167" s="45"/>
       <c r="V167" s="45"/>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:22">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5701,7 +5715,7 @@
       <c r="Q168" s="45"/>
       <c r="V168" s="45"/>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:22">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5721,7 +5735,7 @@
       <c r="Q169" s="45"/>
       <c r="V169" s="45"/>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:22">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -5777,14 +5791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5804,7 +5818,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>52</v>
       </c>
@@ -5860,7 +5874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5880,7 +5894,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5900,7 +5914,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5927,14 +5941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -5946,7 +5960,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="86" t="s">
         <v>69</v>
       </c>
@@ -5961,7 +5975,7 @@
       <c r="J1" s="87"/>
       <c r="K1" s="87"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -5996,7 +6010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="88"/>
       <c r="B3" s="88"/>
       <c r="C3" s="20"/>
@@ -6009,7 +6023,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="89"/>
       <c r="B4" s="90"/>
       <c r="C4" s="20"/>
@@ -6022,7 +6036,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="88"/>
       <c r="B5" s="88"/>
       <c r="C5" s="20"/>
@@ -6035,7 +6049,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="90"/>
       <c r="B6" s="90"/>
       <c r="C6" s="20"/>
@@ -6048,7 +6062,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="90"/>
       <c r="B7" s="90"/>
       <c r="C7" s="20"/>
@@ -6061,7 +6075,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="90"/>
       <c r="B8" s="90"/>
       <c r="C8" s="20"/>
@@ -6074,7 +6088,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="90"/>
       <c r="B9" s="90"/>
       <c r="C9" s="20"/>
@@ -6087,7 +6101,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="89"/>
       <c r="B10" s="89"/>
       <c r="C10" s="20"/>
@@ -6100,7 +6114,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -6127,14 +6141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6149,7 +6163,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -6166,7 +6180,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -6181,7 +6195,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6222,7 +6236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6237,7 +6251,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6252,7 +6266,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6267,7 +6281,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6282,7 +6296,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6297,7 +6311,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6312,7 +6326,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6327,7 +6341,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6342,7 +6356,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6357,7 +6371,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6372,7 +6386,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6387,7 +6401,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6402,7 +6416,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6441,14 +6455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6463,7 +6477,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -6480,7 +6494,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -6495,7 +6509,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6536,7 +6550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6551,7 +6565,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6566,7 +6580,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6581,7 +6595,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6596,7 +6610,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6611,7 +6625,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6626,7 +6640,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6641,7 +6655,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6656,7 +6670,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6671,7 +6685,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6686,7 +6700,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6701,7 +6715,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6716,7 +6730,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6755,14 +6769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6777,7 +6791,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -6794,7 +6808,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -6809,7 +6823,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -6850,7 +6864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6865,7 +6879,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6880,7 +6894,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6895,7 +6909,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6910,7 +6924,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6925,7 +6939,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6940,7 +6954,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6955,7 +6969,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6970,7 +6984,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6985,7 +6999,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7000,7 +7014,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7015,7 +7029,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7030,7 +7044,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7069,14 +7083,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -7093,7 +7107,7 @@
     <col min="13" max="13" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="91" t="s">
         <v>21</v>
       </c>
@@ -7110,7 +7124,7 @@
       <c r="L1" s="91"/>
       <c r="M1" s="92"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="93"/>
@@ -7125,7 +7139,7 @@
       <c r="L2" s="93"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -7166,7 +7180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -7181,7 +7195,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7196,7 +7210,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7211,7 +7225,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -7226,7 +7240,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -7241,7 +7255,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -7256,7 +7270,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -7271,7 +7285,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -7286,7 +7300,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -7301,7 +7315,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -7316,7 +7330,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -7331,7 +7345,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -7346,7 +7360,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -7385,14 +7399,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7403,7 +7417,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -7429,7 +7443,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7439,7 +7453,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7449,7 +7463,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7459,7 +7473,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7469,7 +7483,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7479,7 +7493,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7489,7 +7503,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7499,7 +7513,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7509,7 +7523,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7519,7 +7533,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7529,7 +7543,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7539,7 +7553,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7549,7 +7563,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7559,7 +7573,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7569,7 +7583,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7579,7 +7593,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7589,7 +7603,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7599,7 +7613,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
